--- a/experiment/linear/ex9_1_9/compare/M-Estacionario/ex9_1_9_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_9/compare/M-Estacionario/ex9_1_9_M-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00024444</v>
+        <v>0.00026667</v>
       </c>
       <c r="F2">
-        <v>0.01819521</v>
+        <v>0.020411067</v>
       </c>
       <c r="G2">
-        <v>0.000367593417</v>
+        <v>0.0004206910923</v>
       </c>
       <c r="H2">
         <v>1637</v>
@@ -517,13 +517,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.00242289</v>
+        <v>0.002217013</v>
       </c>
       <c r="F3">
-        <v>0.00734553</v>
+        <v>0.018746174</v>
       </c>
       <c r="G3">
-        <v>0.003023389897032102</v>
+        <v>0.00354871923541963</v>
       </c>
       <c r="H3">
         <v>2064</v>
@@ -552,13 +552,13 @@
         <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.00446544</v>
+        <v>0.006076533</v>
       </c>
       <c r="F4">
-        <v>0.01002618</v>
+        <v>0.029011609</v>
       </c>
       <c r="G4">
-        <v>0.005305715787923417</v>
+        <v>0.007394484687407407</v>
       </c>
       <c r="H4">
         <v>5613</v>
